--- a/Subjects/subject 500/processed_audio_df.xlsx
+++ b/Subjects/subject 500/processed_audio_df.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +454,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -464,7 +464,7 @@
         <v>1.214354166666667</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -508,7 +508,7 @@
         <v>0.9275833333333334</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -542,7 +542,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -552,7 +552,7 @@
         <v>0.7469583333333334</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -586,7 +586,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -596,7 +596,7 @@
         <v>1.1129375</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -630,7 +630,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -640,7 +640,7 @@
         <v>1.059083333333333</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -684,7 +684,7 @@
         <v>0.7390208333333332</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -718,7 +718,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -762,7 +762,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -772,7 +772,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -816,7 +816,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -850,7 +850,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -860,7 +860,7 @@
         <v>1.04325</v>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -894,7 +894,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -904,7 +904,7 @@
         <v>1.244458333333333</v>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -992,7 +992,7 @@
         <v>0.7390208333333332</v>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -1036,7 +1036,7 @@
         <v>0.6915</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -1080,7 +1080,7 @@
         <v>0.7231875000000001</v>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1124,7 +1124,7 @@
         <v>0.9703541666666666</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -1168,7 +1168,7 @@
         <v>0.9418333333333333</v>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -1212,7 +1212,7 @@
         <v>1.082854166666667</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1256,7 +1256,7 @@
         <v>0.7691250000000001</v>
       </c>
       <c r="L20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1344,7 +1344,7 @@
         <v>0.5077083333333334</v>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -1388,7 +1388,7 @@
         <v>1.139895833333333</v>
       </c>
       <c r="L23" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1432,7 +1432,7 @@
         <v>0.5726666666666667</v>
       </c>
       <c r="L24" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -1476,7 +1476,7 @@
         <v>1.139895833333333</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1520,7 +1520,7 @@
         <v>1.059083333333333</v>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1564,7 +1564,7 @@
         <v>0.7833958333333333</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -1608,7 +1608,7 @@
         <v>1.130395833333333</v>
       </c>
       <c r="L28" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -1652,7 +1652,7 @@
         <v>1.059083333333333</v>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -1696,7 +1696,7 @@
         <v>0.9561041666666668</v>
       </c>
       <c r="L30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1730,7 +1730,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -1784,7 +1784,7 @@
         <v>0.7342708333333334</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -1872,7 +1872,7 @@
         <v>1.082854166666667</v>
       </c>
       <c r="L34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -1916,7 +1916,7 @@
         <v>0.6819999999999999</v>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1960,7 +1960,7 @@
         <v>0.7136875</v>
       </c>
       <c r="L36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -2004,7 +2004,7 @@
         <v>0.7327083333333333</v>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -2092,7 +2092,7 @@
         <v>0.6915</v>
       </c>
       <c r="L39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -2136,7 +2136,7 @@
         <v>0.8341041666666666</v>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -2180,7 +2180,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L41" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -2224,7 +2224,7 @@
         <v>0.900625</v>
       </c>
       <c r="L42" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -2312,7 +2312,7 @@
         <v>1.350625</v>
       </c>
       <c r="L44" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -2356,7 +2356,7 @@
         <v>0.6709166666666666</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -2400,7 +2400,7 @@
         <v>0.9814583333333333</v>
       </c>
       <c r="L46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -2444,7 +2444,7 @@
         <v>1.120875</v>
       </c>
       <c r="L47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -2488,7 +2488,7 @@
         <v>0.6360416666666666</v>
       </c>
       <c r="L48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -2532,7 +2532,7 @@
         <v>1.231791666666667</v>
       </c>
       <c r="L49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -2576,7 +2576,7 @@
         <v>0.8436041666666667</v>
       </c>
       <c r="L50" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J51" t="n">
@@ -2620,7 +2620,7 @@
         <v>0.5869166666666668</v>
       </c>
       <c r="L51" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -2664,7 +2664,7 @@
         <v>0.5726666666666667</v>
       </c>
       <c r="L52" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -2708,7 +2708,7 @@
         <v>0.6709166666666666</v>
       </c>
       <c r="L53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -2752,7 +2752,7 @@
         <v>1.139895833333333</v>
       </c>
       <c r="L54" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -2840,7 +2840,7 @@
         <v>0.2494375</v>
       </c>
       <c r="L56" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -2884,7 +2884,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -2928,7 +2928,7 @@
         <v>0.8245833333333332</v>
       </c>
       <c r="L58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -2972,7 +2972,7 @@
         <v>0.7390208333333332</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -3016,7 +3016,7 @@
         <v>0.8245833333333332</v>
       </c>
       <c r="L60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -3060,7 +3060,7 @@
         <v>1.028979166666667</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -3104,7 +3104,7 @@
         <v>1.1129375</v>
       </c>
       <c r="L62" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -3148,7 +3148,7 @@
         <v>0.8436041666666667</v>
       </c>
       <c r="L63" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
@@ -3192,7 +3192,7 @@
         <v>0.7833958333333333</v>
       </c>
       <c r="L64" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -3236,7 +3236,7 @@
         <v>0.6915</v>
       </c>
       <c r="L65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
@@ -3270,7 +3270,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -3280,7 +3280,7 @@
         <v>0.7390208333333332</v>
       </c>
       <c r="L66" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -3324,7 +3324,7 @@
         <v>0.8436041666666667</v>
       </c>
       <c r="L67" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -3368,7 +3368,7 @@
         <v>0.5457291666666666</v>
       </c>
       <c r="L68" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -3412,7 +3412,7 @@
         <v>0.7231875000000001</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -3456,7 +3456,7 @@
         <v>0.8087500000000001</v>
       </c>
       <c r="L70" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
@@ -3500,7 +3500,7 @@
         <v>1.076520833333333</v>
       </c>
       <c r="L71" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -3544,7 +3544,7 @@
         <v>1.130395833333333</v>
       </c>
       <c r="L72" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -3588,7 +3588,7 @@
         <v>1.182666666666667</v>
       </c>
       <c r="L73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3632,7 +3632,7 @@
         <v>0.8182499999999999</v>
       </c>
       <c r="L74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -3720,7 +3720,7 @@
         <v>0.8087500000000001</v>
       </c>
       <c r="L76" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -3764,7 +3764,7 @@
         <v>0.5647291666666667</v>
       </c>
       <c r="L77" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -3808,7 +3808,7 @@
         <v>1.312604166666667</v>
       </c>
       <c r="L78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3852,7 +3852,7 @@
         <v>1.059083333333333</v>
       </c>
       <c r="L79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -3896,7 +3896,7 @@
         <v>0.6709166666666666</v>
       </c>
       <c r="L80" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">
@@ -3930,7 +3930,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -3940,7 +3940,7 @@
         <v>0.7136875</v>
       </c>
       <c r="L81" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 500/processed_audio_df.xlsx
+++ b/Subjects/subject 500/processed_audio_df.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +454,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -464,7 +464,7 @@
         <v>1.214354166666667</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -508,7 +508,7 @@
         <v>0.9275833333333334</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -542,7 +542,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -552,7 +552,7 @@
         <v>0.7469583333333334</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +596,7 @@
         <v>1.1129375</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -640,7 +640,7 @@
         <v>1.059083333333333</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -674,7 +674,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -684,7 +684,7 @@
         <v>0.7390208333333332</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -718,7 +718,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -728,7 +728,7 @@
         <v>0.7833958333333333</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -762,7 +762,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -772,7 +772,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -806,7 +806,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -816,7 +816,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -850,7 +850,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -860,7 +860,7 @@
         <v>1.04325</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -894,7 +894,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -904,7 +904,7 @@
         <v>1.244458333333333</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -938,7 +938,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -948,7 +948,7 @@
         <v>1.068604166666667</v>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -982,7 +982,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -992,7 +992,7 @@
         <v>0.7390208333333332</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -1080,7 +1080,7 @@
         <v>0.7231875000000001</v>
       </c>
       <c r="L16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -1124,7 +1124,7 @@
         <v>0.9703541666666666</v>
       </c>
       <c r="L17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -1212,7 +1212,7 @@
         <v>1.082854166666667</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -1300,7 +1300,7 @@
         <v>0.7136875</v>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1344,7 +1344,7 @@
         <v>0.5077083333333334</v>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -1388,7 +1388,7 @@
         <v>1.139895833333333</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -1432,7 +1432,7 @@
         <v>0.5726666666666667</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -1476,7 +1476,7 @@
         <v>1.139895833333333</v>
       </c>
       <c r="L25" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -1520,7 +1520,7 @@
         <v>1.059083333333333</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -1564,7 +1564,7 @@
         <v>0.7833958333333333</v>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1608,7 +1608,7 @@
         <v>1.130395833333333</v>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -1652,7 +1652,7 @@
         <v>1.059083333333333</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -1696,7 +1696,7 @@
         <v>0.9561041666666668</v>
       </c>
       <c r="L30" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1730,7 +1730,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -1740,7 +1740,7 @@
         <v>0.8182499999999999</v>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -1784,7 +1784,7 @@
         <v>0.7342708333333334</v>
       </c>
       <c r="L32" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -1828,7 +1828,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -1872,7 +1872,7 @@
         <v>1.082854166666667</v>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -1916,7 +1916,7 @@
         <v>0.6819999999999999</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -1960,7 +1960,7 @@
         <v>0.7136875</v>
       </c>
       <c r="L36" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -2004,7 +2004,7 @@
         <v>0.7327083333333333</v>
       </c>
       <c r="L37" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -2048,7 +2048,7 @@
         <v>0.8657916666666667</v>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -2092,7 +2092,7 @@
         <v>0.6915</v>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -2136,7 +2136,7 @@
         <v>0.8341041666666666</v>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -2180,7 +2180,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L41" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -2224,7 +2224,7 @@
         <v>0.900625</v>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -2268,7 +2268,7 @@
         <v>0.8341041666666666</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -2312,7 +2312,7 @@
         <v>1.350625</v>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -2356,7 +2356,7 @@
         <v>0.6709166666666666</v>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -2444,7 +2444,7 @@
         <v>1.120875</v>
       </c>
       <c r="L47" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -2488,7 +2488,7 @@
         <v>0.6360416666666666</v>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -2532,7 +2532,7 @@
         <v>1.231791666666667</v>
       </c>
       <c r="L49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -2576,7 +2576,7 @@
         <v>0.8436041666666667</v>
       </c>
       <c r="L50" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J51" t="n">
@@ -2620,7 +2620,7 @@
         <v>0.5869166666666668</v>
       </c>
       <c r="L51" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -2708,7 +2708,7 @@
         <v>0.6709166666666666</v>
       </c>
       <c r="L53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -2742,7 +2742,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -2752,7 +2752,7 @@
         <v>1.139895833333333</v>
       </c>
       <c r="L54" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -2796,7 +2796,7 @@
         <v>0.5726666666666667</v>
       </c>
       <c r="L55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -2840,7 +2840,7 @@
         <v>0.2494375</v>
       </c>
       <c r="L56" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -2884,7 +2884,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -2928,7 +2928,7 @@
         <v>0.8245833333333332</v>
       </c>
       <c r="L58" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -2972,7 +2972,7 @@
         <v>0.7390208333333332</v>
       </c>
       <c r="L59" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -3016,7 +3016,7 @@
         <v>0.8245833333333332</v>
       </c>
       <c r="L60" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -3060,7 +3060,7 @@
         <v>1.028979166666667</v>
       </c>
       <c r="L61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -3104,7 +3104,7 @@
         <v>1.1129375</v>
       </c>
       <c r="L62" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -3148,7 +3148,7 @@
         <v>0.8436041666666667</v>
       </c>
       <c r="L63" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -3192,7 +3192,7 @@
         <v>0.7833958333333333</v>
       </c>
       <c r="L64" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -3236,7 +3236,7 @@
         <v>0.6915</v>
       </c>
       <c r="L65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -3270,7 +3270,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -3280,7 +3280,7 @@
         <v>0.7390208333333332</v>
       </c>
       <c r="L66" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -3324,7 +3324,7 @@
         <v>0.8436041666666667</v>
       </c>
       <c r="L67" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -3368,7 +3368,7 @@
         <v>0.5457291666666666</v>
       </c>
       <c r="L68" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -3412,7 +3412,7 @@
         <v>0.7231875000000001</v>
       </c>
       <c r="L69" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -3456,7 +3456,7 @@
         <v>0.8087500000000001</v>
       </c>
       <c r="L70" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -3500,7 +3500,7 @@
         <v>1.076520833333333</v>
       </c>
       <c r="L71" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -3544,7 +3544,7 @@
         <v>1.130395833333333</v>
       </c>
       <c r="L72" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -3622,7 +3622,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -3632,7 +3632,7 @@
         <v>0.8182499999999999</v>
       </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -3764,7 +3764,7 @@
         <v>0.5647291666666667</v>
       </c>
       <c r="L77" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
@@ -3808,7 +3808,7 @@
         <v>1.312604166666667</v>
       </c>
       <c r="L78" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -3852,7 +3852,7 @@
         <v>1.059083333333333</v>
       </c>
       <c r="L79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -3896,7 +3896,7 @@
         <v>0.6709166666666666</v>
       </c>
       <c r="L80" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
@@ -3940,7 +3940,7 @@
         <v>0.7136875</v>
       </c>
       <c r="L81" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 500/processed_audio_df.xlsx
+++ b/Subjects/subject 500/processed_audio_df.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,22 +50,89 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -454,7 +521,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -464,7 +531,7 @@
         <v>1.214354166666667</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +565,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -508,7 +575,7 @@
         <v>0.9275833333333334</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -542,7 +609,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -552,7 +619,7 @@
         <v>0.7469583333333334</v>
       </c>
       <c r="L4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -586,7 +653,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -674,7 +741,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -684,7 +751,7 @@
         <v>0.7390208333333332</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -718,7 +785,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -728,7 +795,7 @@
         <v>0.7833958333333333</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -762,7 +829,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -772,7 +839,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -806,7 +873,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -816,7 +883,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -850,7 +917,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -860,7 +927,7 @@
         <v>1.04325</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -894,7 +961,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -904,7 +971,7 @@
         <v>1.244458333333333</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -938,7 +1005,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -948,7 +1015,7 @@
         <v>1.068604166666667</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -982,7 +1049,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -992,7 +1059,7 @@
         <v>0.7390208333333332</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1026,7 +1093,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -1036,7 +1103,7 @@
         <v>0.6915</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1070,7 +1137,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -1124,7 +1191,7 @@
         <v>0.9703541666666666</v>
       </c>
       <c r="L17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1158,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -1202,7 +1269,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -1212,7 +1279,7 @@
         <v>1.082854166666667</v>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1246,7 +1313,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -1256,7 +1323,7 @@
         <v>0.7691250000000001</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1300,7 +1367,7 @@
         <v>0.7136875</v>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1344,7 +1411,7 @@
         <v>0.5077083333333334</v>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1388,7 +1455,7 @@
         <v>1.139895833333333</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1432,7 +1499,7 @@
         <v>0.5726666666666667</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1466,7 +1533,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -1476,7 +1543,7 @@
         <v>1.139895833333333</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1564,7 +1631,7 @@
         <v>0.7833958333333333</v>
       </c>
       <c r="L27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1608,7 +1675,7 @@
         <v>1.130395833333333</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1642,7 +1709,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -1652,7 +1719,7 @@
         <v>1.059083333333333</v>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1686,7 +1753,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -1696,7 +1763,7 @@
         <v>0.9561041666666668</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1730,7 +1797,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -1740,7 +1807,7 @@
         <v>0.8182499999999999</v>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1818,7 +1885,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -1828,7 +1895,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L33" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -1862,7 +1929,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -1872,7 +1939,7 @@
         <v>1.082854166666667</v>
       </c>
       <c r="L34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1906,7 +1973,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -1916,7 +1983,7 @@
         <v>0.6819999999999999</v>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -1950,7 +2017,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -1960,7 +2027,7 @@
         <v>0.7136875</v>
       </c>
       <c r="L36" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1994,7 +2061,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -2004,7 +2071,7 @@
         <v>0.7327083333333333</v>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -2038,7 +2105,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -2048,7 +2115,7 @@
         <v>0.8657916666666667</v>
       </c>
       <c r="L38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -2082,7 +2149,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -2092,7 +2159,7 @@
         <v>0.6915</v>
       </c>
       <c r="L39" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -2126,7 +2193,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -2136,7 +2203,7 @@
         <v>0.8341041666666666</v>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -2180,7 +2247,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -2224,7 +2291,7 @@
         <v>0.900625</v>
       </c>
       <c r="L42" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -2268,7 +2335,7 @@
         <v>0.8341041666666666</v>
       </c>
       <c r="L43" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -2302,7 +2369,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -2346,7 +2413,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -2356,7 +2423,7 @@
         <v>0.6709166666666666</v>
       </c>
       <c r="L45" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -2390,7 +2457,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -2400,7 +2467,7 @@
         <v>0.9814583333333333</v>
       </c>
       <c r="L46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -2434,7 +2501,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -2444,7 +2511,7 @@
         <v>1.120875</v>
       </c>
       <c r="L47" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2478,7 +2545,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -2488,7 +2555,7 @@
         <v>0.6360416666666666</v>
       </c>
       <c r="L48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -2522,7 +2589,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -2532,7 +2599,7 @@
         <v>1.231791666666667</v>
       </c>
       <c r="L49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2566,7 +2633,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -2576,7 +2643,7 @@
         <v>0.8436041666666667</v>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -2610,7 +2677,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J51" t="n">
@@ -2620,7 +2687,7 @@
         <v>0.5869166666666668</v>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2654,7 +2721,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -2664,7 +2731,7 @@
         <v>0.5726666666666667</v>
       </c>
       <c r="L52" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -2698,7 +2765,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -2742,7 +2809,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -2752,7 +2819,7 @@
         <v>1.139895833333333</v>
       </c>
       <c r="L54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -2786,7 +2853,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -2796,7 +2863,7 @@
         <v>0.5726666666666667</v>
       </c>
       <c r="L55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -2830,7 +2897,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -2840,7 +2907,7 @@
         <v>0.2494375</v>
       </c>
       <c r="L56" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -2884,7 +2951,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L57" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -2918,7 +2985,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -2928,7 +2995,7 @@
         <v>0.8245833333333332</v>
       </c>
       <c r="L58" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -2962,7 +3029,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -2972,7 +3039,7 @@
         <v>0.7390208333333332</v>
       </c>
       <c r="L59" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -3016,7 +3083,7 @@
         <v>0.8245833333333332</v>
       </c>
       <c r="L60" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
@@ -3060,7 +3127,7 @@
         <v>1.028979166666667</v>
       </c>
       <c r="L61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -3094,7 +3161,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -3138,7 +3205,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -3148,7 +3215,7 @@
         <v>0.8436041666666667</v>
       </c>
       <c r="L63" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -3182,7 +3249,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -3192,7 +3259,7 @@
         <v>0.7833958333333333</v>
       </c>
       <c r="L64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -3226,7 +3293,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -3236,7 +3303,7 @@
         <v>0.6915</v>
       </c>
       <c r="L65" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -3280,7 +3347,7 @@
         <v>0.7390208333333332</v>
       </c>
       <c r="L66" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -3314,7 +3381,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -3324,7 +3391,7 @@
         <v>0.8436041666666667</v>
       </c>
       <c r="L67" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -3358,7 +3425,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -3368,7 +3435,7 @@
         <v>0.5457291666666666</v>
       </c>
       <c r="L68" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -3402,7 +3469,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -3412,7 +3479,7 @@
         <v>0.7231875000000001</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -3446,7 +3513,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -3456,7 +3523,7 @@
         <v>0.8087500000000001</v>
       </c>
       <c r="L70" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
@@ -3490,7 +3557,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -3500,7 +3567,7 @@
         <v>1.076520833333333</v>
       </c>
       <c r="L71" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -3534,7 +3601,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -3544,7 +3611,7 @@
         <v>1.130395833333333</v>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
@@ -3588,7 +3655,7 @@
         <v>1.182666666666667</v>
       </c>
       <c r="L73" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
@@ -3632,7 +3699,7 @@
         <v>0.8182499999999999</v>
       </c>
       <c r="L74" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
@@ -3666,7 +3733,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -3676,7 +3743,7 @@
         <v>0.9703541666666666</v>
       </c>
       <c r="L75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3710,7 +3777,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -3720,7 +3787,7 @@
         <v>0.8087500000000001</v>
       </c>
       <c r="L76" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3754,7 +3821,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -3764,7 +3831,7 @@
         <v>0.5647291666666667</v>
       </c>
       <c r="L77" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
@@ -3798,7 +3865,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -3808,7 +3875,7 @@
         <v>1.312604166666667</v>
       </c>
       <c r="L78" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3842,7 +3909,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -3852,7 +3919,7 @@
         <v>1.059083333333333</v>
       </c>
       <c r="L79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -3886,7 +3953,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -3896,7 +3963,7 @@
         <v>0.6709166666666666</v>
       </c>
       <c r="L80" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -3930,7 +3997,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -3940,10 +4007,10 @@
         <v>0.7136875</v>
       </c>
       <c r="L81" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Subjects/subject 500/processed_audio_df.xlsx
+++ b/Subjects/subject 500/processed_audio_df.xlsx
@@ -521,7 +521,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -531,7 +531,7 @@
         <v>1.214354166666667</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -565,7 +565,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -575,7 +575,7 @@
         <v>0.9275833333333334</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -609,7 +609,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -619,7 +619,7 @@
         <v>0.7469583333333334</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -653,7 +653,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -663,7 +663,7 @@
         <v>1.1129375</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -697,7 +697,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -707,7 +707,7 @@
         <v>1.059083333333333</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -741,7 +741,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -751,7 +751,7 @@
         <v>0.7390208333333332</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -795,7 +795,7 @@
         <v>0.7833958333333333</v>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -829,7 +829,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -839,7 +839,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -883,7 +883,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -917,7 +917,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -961,7 +961,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -971,7 +971,7 @@
         <v>1.244458333333333</v>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -1015,7 +1015,7 @@
         <v>1.068604166666667</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -1103,7 +1103,7 @@
         <v>0.6915</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -1147,7 +1147,7 @@
         <v>0.7231875000000001</v>
       </c>
       <c r="L16" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -1191,7 +1191,7 @@
         <v>0.9703541666666666</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -1235,7 +1235,7 @@
         <v>0.9418333333333333</v>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -1279,7 +1279,7 @@
         <v>1.082854166666667</v>
       </c>
       <c r="L19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -1323,7 +1323,7 @@
         <v>0.7691250000000001</v>
       </c>
       <c r="L20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -1367,7 +1367,7 @@
         <v>0.7136875</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1411,7 +1411,7 @@
         <v>0.5077083333333334</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -1455,7 +1455,7 @@
         <v>1.139895833333333</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -1499,7 +1499,7 @@
         <v>0.5726666666666667</v>
       </c>
       <c r="L24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -1543,7 +1543,7 @@
         <v>1.139895833333333</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -1631,7 +1631,7 @@
         <v>0.7833958333333333</v>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -1719,7 +1719,7 @@
         <v>1.059083333333333</v>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -1763,7 +1763,7 @@
         <v>0.9561041666666668</v>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -1807,7 +1807,7 @@
         <v>0.8182499999999999</v>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -1895,7 +1895,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -1939,7 +1939,7 @@
         <v>1.082854166666667</v>
       </c>
       <c r="L34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -1983,7 +1983,7 @@
         <v>0.6819999999999999</v>
       </c>
       <c r="L35" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -2027,7 +2027,7 @@
         <v>0.7136875</v>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -2071,7 +2071,7 @@
         <v>0.7327083333333333</v>
       </c>
       <c r="L37" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -2115,7 +2115,7 @@
         <v>0.8657916666666667</v>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -2159,7 +2159,7 @@
         <v>0.6915</v>
       </c>
       <c r="L39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -2203,7 +2203,7 @@
         <v>0.8341041666666666</v>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -2247,7 +2247,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L41" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -2291,7 +2291,7 @@
         <v>0.900625</v>
       </c>
       <c r="L42" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -2335,7 +2335,7 @@
         <v>0.8341041666666666</v>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -2379,7 +2379,7 @@
         <v>1.350625</v>
       </c>
       <c r="L44" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -2423,7 +2423,7 @@
         <v>0.6709166666666666</v>
       </c>
       <c r="L45" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -2467,7 +2467,7 @@
         <v>0.9814583333333333</v>
       </c>
       <c r="L46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -2511,7 +2511,7 @@
         <v>1.120875</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -2555,7 +2555,7 @@
         <v>0.6360416666666666</v>
       </c>
       <c r="L48" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -2599,7 +2599,7 @@
         <v>1.231791666666667</v>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -2643,7 +2643,7 @@
         <v>0.8436041666666667</v>
       </c>
       <c r="L50" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J51" t="n">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -2731,7 +2731,7 @@
         <v>0.5726666666666667</v>
       </c>
       <c r="L52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -2775,7 +2775,7 @@
         <v>0.6709166666666666</v>
       </c>
       <c r="L53" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -2819,7 +2819,7 @@
         <v>1.139895833333333</v>
       </c>
       <c r="L54" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -2863,7 +2863,7 @@
         <v>0.5726666666666667</v>
       </c>
       <c r="L55" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -2907,7 +2907,7 @@
         <v>0.2494375</v>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -2951,7 +2951,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -2995,7 +2995,7 @@
         <v>0.8245833333333332</v>
       </c>
       <c r="L58" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -3083,7 +3083,7 @@
         <v>0.8245833333333332</v>
       </c>
       <c r="L60" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -3127,7 +3127,7 @@
         <v>1.028979166666667</v>
       </c>
       <c r="L61" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -3171,7 +3171,7 @@
         <v>1.1129375</v>
       </c>
       <c r="L62" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -3205,7 +3205,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -3215,7 +3215,7 @@
         <v>0.8436041666666667</v>
       </c>
       <c r="L63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -3249,7 +3249,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -3259,7 +3259,7 @@
         <v>0.7833958333333333</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -3303,7 +3303,7 @@
         <v>0.6915</v>
       </c>
       <c r="L65" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -3347,7 +3347,7 @@
         <v>0.7390208333333332</v>
       </c>
       <c r="L66" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -3391,7 +3391,7 @@
         <v>0.8436041666666667</v>
       </c>
       <c r="L67" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -3435,7 +3435,7 @@
         <v>0.5457291666666666</v>
       </c>
       <c r="L68" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -3479,7 +3479,7 @@
         <v>0.7231875000000001</v>
       </c>
       <c r="L69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -3523,7 +3523,7 @@
         <v>0.8087500000000001</v>
       </c>
       <c r="L70" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
@@ -3557,7 +3557,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -3567,7 +3567,7 @@
         <v>1.076520833333333</v>
       </c>
       <c r="L71" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -3611,7 +3611,7 @@
         <v>1.130395833333333</v>
       </c>
       <c r="L72" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -3655,7 +3655,7 @@
         <v>1.182666666666667</v>
       </c>
       <c r="L73" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -3699,7 +3699,7 @@
         <v>0.8182499999999999</v>
       </c>
       <c r="L74" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -3743,7 +3743,7 @@
         <v>0.9703541666666666</v>
       </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -3787,7 +3787,7 @@
         <v>0.8087500000000001</v>
       </c>
       <c r="L76" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -3831,7 +3831,7 @@
         <v>0.5647291666666667</v>
       </c>
       <c r="L77" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -3919,7 +3919,7 @@
         <v>1.059083333333333</v>
       </c>
       <c r="L79" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -4007,7 +4007,7 @@
         <v>0.7136875</v>
       </c>
       <c r="L81" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 500/processed_audio_df.xlsx
+++ b/Subjects/subject 500/processed_audio_df.xlsx
@@ -521,7 +521,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -531,7 +531,7 @@
         <v>1.214354166666667</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -565,7 +565,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -575,7 +575,7 @@
         <v>0.9275833333333334</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -609,7 +609,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -619,7 +619,7 @@
         <v>0.7469583333333334</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -663,7 +663,7 @@
         <v>1.1129375</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -697,7 +697,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -707,7 +707,7 @@
         <v>1.059083333333333</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -741,7 +741,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -751,7 +751,7 @@
         <v>0.7390208333333332</v>
       </c>
       <c r="L7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -795,7 +795,7 @@
         <v>0.7833958333333333</v>
       </c>
       <c r="L8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -829,7 +829,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -839,7 +839,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -883,7 +883,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -917,7 +917,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -927,7 +927,7 @@
         <v>1.04325</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -961,7 +961,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -971,7 +971,7 @@
         <v>1.244458333333333</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -1015,7 +1015,7 @@
         <v>1.068604166666667</v>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1059,7 +1059,7 @@
         <v>0.7390208333333332</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -1103,7 +1103,7 @@
         <v>0.6915</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -1147,7 +1147,7 @@
         <v>0.7231875000000001</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -1191,7 +1191,7 @@
         <v>0.9703541666666666</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -1235,7 +1235,7 @@
         <v>0.9418333333333333</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -1279,7 +1279,7 @@
         <v>1.082854166666667</v>
       </c>
       <c r="L19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -1367,7 +1367,7 @@
         <v>0.7136875</v>
       </c>
       <c r="L21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1411,7 +1411,7 @@
         <v>0.5077083333333334</v>
       </c>
       <c r="L22" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -1455,7 +1455,7 @@
         <v>1.139895833333333</v>
       </c>
       <c r="L23" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -1543,7 +1543,7 @@
         <v>1.139895833333333</v>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -1587,7 +1587,7 @@
         <v>1.059083333333333</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -1631,7 +1631,7 @@
         <v>0.7833958333333333</v>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -1675,7 +1675,7 @@
         <v>1.130395833333333</v>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -1719,7 +1719,7 @@
         <v>1.059083333333333</v>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -1763,7 +1763,7 @@
         <v>0.9561041666666668</v>
       </c>
       <c r="L30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1807,7 +1807,7 @@
         <v>0.8182499999999999</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -1851,7 +1851,7 @@
         <v>0.7342708333333334</v>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -1939,7 +1939,7 @@
         <v>1.082854166666667</v>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -2027,7 +2027,7 @@
         <v>0.7136875</v>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -2071,7 +2071,7 @@
         <v>0.7327083333333333</v>
       </c>
       <c r="L37" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -2115,7 +2115,7 @@
         <v>0.8657916666666667</v>
       </c>
       <c r="L38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -2159,7 +2159,7 @@
         <v>0.6915</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -2203,7 +2203,7 @@
         <v>0.8341041666666666</v>
       </c>
       <c r="L40" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -2247,7 +2247,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L41" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -2291,7 +2291,7 @@
         <v>0.900625</v>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -2335,7 +2335,7 @@
         <v>0.8341041666666666</v>
       </c>
       <c r="L43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -2379,7 +2379,7 @@
         <v>1.350625</v>
       </c>
       <c r="L44" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -2511,7 +2511,7 @@
         <v>1.120875</v>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -2555,7 +2555,7 @@
         <v>0.6360416666666666</v>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -2599,7 +2599,7 @@
         <v>1.231791666666667</v>
       </c>
       <c r="L49" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -2643,7 +2643,7 @@
         <v>0.8436041666666667</v>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J51" t="n">
@@ -2687,7 +2687,7 @@
         <v>0.5869166666666668</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -2731,7 +2731,7 @@
         <v>0.5726666666666667</v>
       </c>
       <c r="L52" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -2819,7 +2819,7 @@
         <v>1.139895833333333</v>
       </c>
       <c r="L54" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -2863,7 +2863,7 @@
         <v>0.5726666666666667</v>
       </c>
       <c r="L55" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -2951,7 +2951,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L57" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -2995,7 +2995,7 @@
         <v>0.8245833333333332</v>
       </c>
       <c r="L58" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -3039,7 +3039,7 @@
         <v>0.7390208333333332</v>
       </c>
       <c r="L59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -3083,7 +3083,7 @@
         <v>0.8245833333333332</v>
       </c>
       <c r="L60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -3127,7 +3127,7 @@
         <v>1.028979166666667</v>
       </c>
       <c r="L61" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -3205,7 +3205,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -3215,7 +3215,7 @@
         <v>0.8436041666666667</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -3249,7 +3249,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -3259,7 +3259,7 @@
         <v>0.7833958333333333</v>
       </c>
       <c r="L64" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -3347,7 +3347,7 @@
         <v>0.7390208333333332</v>
       </c>
       <c r="L66" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -3391,7 +3391,7 @@
         <v>0.8436041666666667</v>
       </c>
       <c r="L67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -3435,7 +3435,7 @@
         <v>0.5457291666666666</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -3469,7 +3469,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -3479,7 +3479,7 @@
         <v>0.7231875000000001</v>
       </c>
       <c r="L69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -3523,7 +3523,7 @@
         <v>0.8087500000000001</v>
       </c>
       <c r="L70" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
@@ -3557,7 +3557,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -3567,7 +3567,7 @@
         <v>1.076520833333333</v>
       </c>
       <c r="L71" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -3611,7 +3611,7 @@
         <v>1.130395833333333</v>
       </c>
       <c r="L72" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -3655,7 +3655,7 @@
         <v>1.182666666666667</v>
       </c>
       <c r="L73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -3699,7 +3699,7 @@
         <v>0.8182499999999999</v>
       </c>
       <c r="L74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -3787,7 +3787,7 @@
         <v>0.8087500000000001</v>
       </c>
       <c r="L76" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -3831,7 +3831,7 @@
         <v>0.5647291666666667</v>
       </c>
       <c r="L77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -3875,7 +3875,7 @@
         <v>1.312604166666667</v>
       </c>
       <c r="L78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -3919,7 +3919,7 @@
         <v>1.059083333333333</v>
       </c>
       <c r="L79" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -3963,7 +3963,7 @@
         <v>0.6709166666666666</v>
       </c>
       <c r="L80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -4007,7 +4007,7 @@
         <v>0.7136875</v>
       </c>
       <c r="L81" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 500/processed_audio_df.xlsx
+++ b/Subjects/subject 500/processed_audio_df.xlsx
@@ -521,7 +521,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -531,7 +531,7 @@
         <v>1.214354166666667</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -565,7 +565,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -575,7 +575,7 @@
         <v>0.9275833333333334</v>
       </c>
       <c r="L3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -609,7 +609,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -619,7 +619,7 @@
         <v>0.7469583333333334</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -653,7 +653,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -663,7 +663,7 @@
         <v>1.1129375</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -707,7 +707,7 @@
         <v>1.059083333333333</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -741,7 +741,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -751,7 +751,7 @@
         <v>0.7390208333333332</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -785,7 +785,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -795,7 +795,7 @@
         <v>0.7833958333333333</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -829,7 +829,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -839,7 +839,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -883,7 +883,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -927,7 +927,7 @@
         <v>1.04325</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -961,7 +961,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -1015,7 +1015,7 @@
         <v>1.068604166666667</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1059,7 +1059,7 @@
         <v>0.7390208333333332</v>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -1103,7 +1103,7 @@
         <v>0.6915</v>
       </c>
       <c r="L15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -1147,7 +1147,7 @@
         <v>0.7231875000000001</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -1235,7 +1235,7 @@
         <v>0.9418333333333333</v>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -1323,7 +1323,7 @@
         <v>0.7691250000000001</v>
       </c>
       <c r="L20" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -1367,7 +1367,7 @@
         <v>0.7136875</v>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1411,7 +1411,7 @@
         <v>0.5077083333333334</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -1455,7 +1455,7 @@
         <v>1.139895833333333</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -1543,7 +1543,7 @@
         <v>1.139895833333333</v>
       </c>
       <c r="L25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -1587,7 +1587,7 @@
         <v>1.059083333333333</v>
       </c>
       <c r="L26" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -1631,7 +1631,7 @@
         <v>0.7833958333333333</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1675,7 +1675,7 @@
         <v>1.130395833333333</v>
       </c>
       <c r="L28" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -1719,7 +1719,7 @@
         <v>1.059083333333333</v>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1763,7 +1763,7 @@
         <v>0.9561041666666668</v>
       </c>
       <c r="L30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -1807,7 +1807,7 @@
         <v>0.8182499999999999</v>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -1895,7 +1895,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L33" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -1939,7 +1939,7 @@
         <v>1.082854166666667</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -1983,7 +1983,7 @@
         <v>0.6819999999999999</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -2071,7 +2071,7 @@
         <v>0.7327083333333333</v>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -2159,7 +2159,7 @@
         <v>0.6915</v>
       </c>
       <c r="L39" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -2203,7 +2203,7 @@
         <v>0.8341041666666666</v>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -2291,7 +2291,7 @@
         <v>0.900625</v>
       </c>
       <c r="L42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -2335,7 +2335,7 @@
         <v>0.8341041666666666</v>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -2379,7 +2379,7 @@
         <v>1.350625</v>
       </c>
       <c r="L44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -2423,7 +2423,7 @@
         <v>0.6709166666666666</v>
       </c>
       <c r="L45" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -2467,7 +2467,7 @@
         <v>0.9814583333333333</v>
       </c>
       <c r="L46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -2511,7 +2511,7 @@
         <v>1.120875</v>
       </c>
       <c r="L47" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -2555,7 +2555,7 @@
         <v>0.6360416666666666</v>
       </c>
       <c r="L48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -2599,7 +2599,7 @@
         <v>1.231791666666667</v>
       </c>
       <c r="L49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -2643,7 +2643,7 @@
         <v>0.8436041666666667</v>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J51" t="n">
@@ -2687,7 +2687,7 @@
         <v>0.5869166666666668</v>
       </c>
       <c r="L51" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -2731,7 +2731,7 @@
         <v>0.5726666666666667</v>
       </c>
       <c r="L52" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -2775,7 +2775,7 @@
         <v>0.6709166666666666</v>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -2819,7 +2819,7 @@
         <v>1.139895833333333</v>
       </c>
       <c r="L54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -2863,7 +2863,7 @@
         <v>0.5726666666666667</v>
       </c>
       <c r="L55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -2907,7 +2907,7 @@
         <v>0.2494375</v>
       </c>
       <c r="L56" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -2951,7 +2951,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L57" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -3083,7 +3083,7 @@
         <v>0.8245833333333332</v>
       </c>
       <c r="L60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -3127,7 +3127,7 @@
         <v>1.028979166666667</v>
       </c>
       <c r="L61" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -3171,7 +3171,7 @@
         <v>1.1129375</v>
       </c>
       <c r="L62" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -3205,7 +3205,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -3215,7 +3215,7 @@
         <v>0.8436041666666667</v>
       </c>
       <c r="L63" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
@@ -3249,7 +3249,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -3259,7 +3259,7 @@
         <v>0.7833958333333333</v>
       </c>
       <c r="L64" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -3303,7 +3303,7 @@
         <v>0.6915</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -3347,7 +3347,7 @@
         <v>0.7390208333333332</v>
       </c>
       <c r="L66" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -3391,7 +3391,7 @@
         <v>0.8436041666666667</v>
       </c>
       <c r="L67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -3435,7 +3435,7 @@
         <v>0.5457291666666666</v>
       </c>
       <c r="L68" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -3469,7 +3469,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -3479,7 +3479,7 @@
         <v>0.7231875000000001</v>
       </c>
       <c r="L69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -3523,7 +3523,7 @@
         <v>0.8087500000000001</v>
       </c>
       <c r="L70" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -3557,7 +3557,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -3567,7 +3567,7 @@
         <v>1.076520833333333</v>
       </c>
       <c r="L71" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -3611,7 +3611,7 @@
         <v>1.130395833333333</v>
       </c>
       <c r="L72" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -3655,7 +3655,7 @@
         <v>1.182666666666667</v>
       </c>
       <c r="L73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -3699,7 +3699,7 @@
         <v>0.8182499999999999</v>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
@@ -3733,7 +3733,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -3743,7 +3743,7 @@
         <v>0.9703541666666666</v>
       </c>
       <c r="L75" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -3787,7 +3787,7 @@
         <v>0.8087500000000001</v>
       </c>
       <c r="L76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -3831,7 +3831,7 @@
         <v>0.5647291666666667</v>
       </c>
       <c r="L77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -3875,7 +3875,7 @@
         <v>1.312604166666667</v>
       </c>
       <c r="L78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -3963,7 +3963,7 @@
         <v>0.6709166666666666</v>
       </c>
       <c r="L80" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -4007,7 +4007,7 @@
         <v>0.7136875</v>
       </c>
       <c r="L81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 500/processed_audio_df.xlsx
+++ b/Subjects/subject 500/processed_audio_df.xlsx
@@ -521,7 +521,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -531,7 +531,7 @@
         <v>1.214354166666667</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -565,7 +565,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -575,7 +575,7 @@
         <v>0.9275833333333334</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -609,7 +609,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -619,7 +619,7 @@
         <v>0.7469583333333334</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -653,7 +653,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -663,7 +663,7 @@
         <v>1.1129375</v>
       </c>
       <c r="L5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -741,7 +741,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -751,7 +751,7 @@
         <v>0.7390208333333332</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -785,7 +785,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -795,7 +795,7 @@
         <v>0.7833958333333333</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -829,7 +829,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -839,7 +839,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -927,7 +927,7 @@
         <v>1.04325</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -961,7 +961,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -971,7 +971,7 @@
         <v>1.244458333333333</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -1103,7 +1103,7 @@
         <v>0.6915</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -1147,7 +1147,7 @@
         <v>0.7231875000000001</v>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1191,7 +1191,7 @@
         <v>0.9703541666666666</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -1279,7 +1279,7 @@
         <v>1.082854166666667</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -1323,7 +1323,7 @@
         <v>0.7691250000000001</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -1367,7 +1367,7 @@
         <v>0.7136875</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1411,7 +1411,7 @@
         <v>0.5077083333333334</v>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -1455,7 +1455,7 @@
         <v>1.139895833333333</v>
       </c>
       <c r="L23" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1499,7 +1499,7 @@
         <v>0.5726666666666667</v>
       </c>
       <c r="L24" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -1543,7 +1543,7 @@
         <v>1.139895833333333</v>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -1587,7 +1587,7 @@
         <v>1.059083333333333</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -1631,7 +1631,7 @@
         <v>0.7833958333333333</v>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -1675,7 +1675,7 @@
         <v>1.130395833333333</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -1719,7 +1719,7 @@
         <v>1.059083333333333</v>
       </c>
       <c r="L29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -1763,7 +1763,7 @@
         <v>0.9561041666666668</v>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -1807,7 +1807,7 @@
         <v>0.8182499999999999</v>
       </c>
       <c r="L31" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -1851,7 +1851,7 @@
         <v>0.7342708333333334</v>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -1895,7 +1895,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -1983,7 +1983,7 @@
         <v>0.6819999999999999</v>
       </c>
       <c r="L35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -2027,7 +2027,7 @@
         <v>0.7136875</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -2159,7 +2159,7 @@
         <v>0.6915</v>
       </c>
       <c r="L39" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -2203,7 +2203,7 @@
         <v>0.8341041666666666</v>
       </c>
       <c r="L40" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -2247,7 +2247,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L41" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -2291,7 +2291,7 @@
         <v>0.900625</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -2335,7 +2335,7 @@
         <v>0.8341041666666666</v>
       </c>
       <c r="L43" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2379,7 +2379,7 @@
         <v>1.350625</v>
       </c>
       <c r="L44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -2423,7 +2423,7 @@
         <v>0.6709166666666666</v>
       </c>
       <c r="L45" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -2467,7 +2467,7 @@
         <v>0.9814583333333333</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -2511,7 +2511,7 @@
         <v>1.120875</v>
       </c>
       <c r="L47" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -2555,7 +2555,7 @@
         <v>0.6360416666666666</v>
       </c>
       <c r="L48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -2599,7 +2599,7 @@
         <v>1.231791666666667</v>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -2643,7 +2643,7 @@
         <v>0.8436041666666667</v>
       </c>
       <c r="L50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J51" t="n">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -2775,7 +2775,7 @@
         <v>0.6709166666666666</v>
       </c>
       <c r="L53" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -2819,7 +2819,7 @@
         <v>1.139895833333333</v>
       </c>
       <c r="L54" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -2863,7 +2863,7 @@
         <v>0.5726666666666667</v>
       </c>
       <c r="L55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -2907,7 +2907,7 @@
         <v>0.2494375</v>
       </c>
       <c r="L56" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -2951,7 +2951,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -2995,7 +2995,7 @@
         <v>0.8245833333333332</v>
       </c>
       <c r="L58" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -3039,7 +3039,7 @@
         <v>0.7390208333333332</v>
       </c>
       <c r="L59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -3083,7 +3083,7 @@
         <v>0.8245833333333332</v>
       </c>
       <c r="L60" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
@@ -3127,7 +3127,7 @@
         <v>1.028979166666667</v>
       </c>
       <c r="L61" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -3171,7 +3171,7 @@
         <v>1.1129375</v>
       </c>
       <c r="L62" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
@@ -3205,7 +3205,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -3215,7 +3215,7 @@
         <v>0.8436041666666667</v>
       </c>
       <c r="L63" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -3259,7 +3259,7 @@
         <v>0.7833958333333333</v>
       </c>
       <c r="L64" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -3303,7 +3303,7 @@
         <v>0.6915</v>
       </c>
       <c r="L65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -3347,7 +3347,7 @@
         <v>0.7390208333333332</v>
       </c>
       <c r="L66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -3391,7 +3391,7 @@
         <v>0.8436041666666667</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -3435,7 +3435,7 @@
         <v>0.5457291666666666</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -3479,7 +3479,7 @@
         <v>0.7231875000000001</v>
       </c>
       <c r="L69" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -3523,7 +3523,7 @@
         <v>0.8087500000000001</v>
       </c>
       <c r="L70" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
@@ -3557,7 +3557,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -3611,7 +3611,7 @@
         <v>1.130395833333333</v>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -3655,7 +3655,7 @@
         <v>1.182666666666667</v>
       </c>
       <c r="L73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -3699,7 +3699,7 @@
         <v>0.8182499999999999</v>
       </c>
       <c r="L74" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -3733,7 +3733,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -3743,7 +3743,7 @@
         <v>0.9703541666666666</v>
       </c>
       <c r="L75" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -3787,7 +3787,7 @@
         <v>0.8087500000000001</v>
       </c>
       <c r="L76" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
@@ -3831,7 +3831,7 @@
         <v>0.5647291666666667</v>
       </c>
       <c r="L77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -3875,7 +3875,7 @@
         <v>1.312604166666667</v>
       </c>
       <c r="L78" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -3919,7 +3919,7 @@
         <v>1.059083333333333</v>
       </c>
       <c r="L79" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -3963,7 +3963,7 @@
         <v>0.6709166666666666</v>
       </c>
       <c r="L80" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
@@ -4007,7 +4007,7 @@
         <v>0.7136875</v>
       </c>
       <c r="L81" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 500/processed_audio_df.xlsx
+++ b/Subjects/subject 500/processed_audio_df.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,89 +50,22 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -521,7 +454,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -565,7 +498,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -575,7 +508,7 @@
         <v>0.9275833333333334</v>
       </c>
       <c r="L3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -609,7 +542,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -619,7 +552,7 @@
         <v>0.7469583333333334</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -663,7 +596,7 @@
         <v>1.1129375</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -697,7 +630,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -707,7 +640,7 @@
         <v>1.059083333333333</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -741,7 +674,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -751,7 +684,7 @@
         <v>0.7390208333333332</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -785,7 +718,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -795,7 +728,7 @@
         <v>0.7833958333333333</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -829,7 +762,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -873,7 +806,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -883,7 +816,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -917,7 +850,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -927,7 +860,7 @@
         <v>1.04325</v>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -961,7 +894,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -971,7 +904,7 @@
         <v>1.244458333333333</v>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1005,7 +938,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -1015,7 +948,7 @@
         <v>1.068604166666667</v>
       </c>
       <c r="L13" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1049,7 +982,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -1093,7 +1026,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -1103,7 +1036,7 @@
         <v>0.6915</v>
       </c>
       <c r="L15" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1137,7 +1070,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -1147,7 +1080,7 @@
         <v>0.7231875000000001</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1191,7 +1124,7 @@
         <v>0.9703541666666666</v>
       </c>
       <c r="L17" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1225,7 +1158,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -1235,7 +1168,7 @@
         <v>0.9418333333333333</v>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1269,7 +1202,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -1279,7 +1212,7 @@
         <v>1.082854166666667</v>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1323,7 +1256,7 @@
         <v>0.7691250000000001</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1367,7 +1300,7 @@
         <v>0.7136875</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1401,7 +1334,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1411,7 +1344,7 @@
         <v>0.5077083333333334</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1445,7 +1378,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -1455,7 +1388,7 @@
         <v>1.139895833333333</v>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1489,7 +1422,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -1533,7 +1466,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -1543,7 +1476,7 @@
         <v>1.139895833333333</v>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1577,7 +1510,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -1587,7 +1520,7 @@
         <v>1.059083333333333</v>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1631,7 +1564,7 @@
         <v>0.7833958333333333</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -1675,7 +1608,7 @@
         <v>1.130395833333333</v>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1709,7 +1642,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -1719,7 +1652,7 @@
         <v>1.059083333333333</v>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1753,7 +1686,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -1763,7 +1696,7 @@
         <v>0.9561041666666668</v>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1797,7 +1730,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -1807,7 +1740,7 @@
         <v>0.8182499999999999</v>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -1841,7 +1774,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -1851,7 +1784,7 @@
         <v>0.7342708333333334</v>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -1885,7 +1818,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -1895,7 +1828,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -1929,7 +1862,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -1939,7 +1872,7 @@
         <v>1.082854166666667</v>
       </c>
       <c r="L34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1983,7 +1916,7 @@
         <v>0.6819999999999999</v>
       </c>
       <c r="L35" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -2017,7 +1950,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -2027,7 +1960,7 @@
         <v>0.7136875</v>
       </c>
       <c r="L36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -2061,7 +1994,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -2071,7 +2004,7 @@
         <v>0.7327083333333333</v>
       </c>
       <c r="L37" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -2105,7 +2038,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -2149,7 +2082,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -2159,7 +2092,7 @@
         <v>0.6915</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -2193,7 +2126,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -2203,7 +2136,7 @@
         <v>0.8341041666666666</v>
       </c>
       <c r="L40" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -2237,7 +2170,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -2247,7 +2180,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -2281,7 +2214,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -2291,7 +2224,7 @@
         <v>0.900625</v>
       </c>
       <c r="L42" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -2335,7 +2268,7 @@
         <v>0.8341041666666666</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -2369,7 +2302,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -2379,7 +2312,7 @@
         <v>1.350625</v>
       </c>
       <c r="L44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -2413,7 +2346,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -2423,7 +2356,7 @@
         <v>0.6709166666666666</v>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -2457,7 +2390,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -2501,7 +2434,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -2511,7 +2444,7 @@
         <v>1.120875</v>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -2545,7 +2478,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -2555,7 +2488,7 @@
         <v>0.6360416666666666</v>
       </c>
       <c r="L48" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -2589,7 +2522,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -2599,7 +2532,7 @@
         <v>1.231791666666667</v>
       </c>
       <c r="L49" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -2643,7 +2576,7 @@
         <v>0.8436041666666667</v>
       </c>
       <c r="L50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2731,7 +2664,7 @@
         <v>0.5726666666666667</v>
       </c>
       <c r="L52" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -2765,7 +2698,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -2775,7 +2708,7 @@
         <v>0.6709166666666666</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -2819,7 +2752,7 @@
         <v>1.139895833333333</v>
       </c>
       <c r="L54" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2853,7 +2786,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -2863,7 +2796,7 @@
         <v>0.5726666666666667</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -2907,7 +2840,7 @@
         <v>0.2494375</v>
       </c>
       <c r="L56" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2941,7 +2874,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -2951,7 +2884,7 @@
         <v>0.8879583333333334</v>
       </c>
       <c r="L57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -2985,7 +2918,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -2995,7 +2928,7 @@
         <v>0.8245833333333332</v>
       </c>
       <c r="L58" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -3029,7 +2962,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -3039,7 +2972,7 @@
         <v>0.7390208333333332</v>
       </c>
       <c r="L59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -3073,7 +3006,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -3083,7 +3016,7 @@
         <v>0.8245833333333332</v>
       </c>
       <c r="L60" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -3117,7 +3050,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -3127,7 +3060,7 @@
         <v>1.028979166666667</v>
       </c>
       <c r="L61" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -3171,7 +3104,7 @@
         <v>1.1129375</v>
       </c>
       <c r="L62" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -3205,7 +3138,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -3215,7 +3148,7 @@
         <v>0.8436041666666667</v>
       </c>
       <c r="L63" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
@@ -3249,7 +3182,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -3259,7 +3192,7 @@
         <v>0.7833958333333333</v>
       </c>
       <c r="L64" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -3293,7 +3226,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -3303,7 +3236,7 @@
         <v>0.6915</v>
       </c>
       <c r="L65" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
@@ -3337,7 +3270,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -3347,7 +3280,7 @@
         <v>0.7390208333333332</v>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
@@ -3391,7 +3324,7 @@
         <v>0.8436041666666667</v>
       </c>
       <c r="L67" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
@@ -3425,7 +3358,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -3435,7 +3368,7 @@
         <v>0.5457291666666666</v>
       </c>
       <c r="L68" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
@@ -3479,7 +3412,7 @@
         <v>0.7231875000000001</v>
       </c>
       <c r="L69" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -3523,7 +3456,7 @@
         <v>0.8087500000000001</v>
       </c>
       <c r="L70" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
@@ -3557,7 +3490,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -3567,7 +3500,7 @@
         <v>1.076520833333333</v>
       </c>
       <c r="L71" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72">
@@ -3601,7 +3534,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -3611,7 +3544,7 @@
         <v>1.130395833333333</v>
       </c>
       <c r="L72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -3645,7 +3578,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -3655,7 +3588,7 @@
         <v>1.182666666666667</v>
       </c>
       <c r="L73" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
@@ -3689,7 +3622,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -3733,7 +3666,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -3743,7 +3676,7 @@
         <v>0.9703541666666666</v>
       </c>
       <c r="L75" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -3777,7 +3710,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -3787,7 +3720,7 @@
         <v>0.8087500000000001</v>
       </c>
       <c r="L76" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -3821,7 +3754,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -3831,7 +3764,7 @@
         <v>0.5647291666666667</v>
       </c>
       <c r="L77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -3875,7 +3808,7 @@
         <v>1.312604166666667</v>
       </c>
       <c r="L78" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3909,7 +3842,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -3919,7 +3852,7 @@
         <v>1.059083333333333</v>
       </c>
       <c r="L79" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
@@ -3953,7 +3886,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -3963,7 +3896,7 @@
         <v>0.6709166666666666</v>
       </c>
       <c r="L80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -3997,7 +3930,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -4007,10 +3940,10 @@
         <v>0.7136875</v>
       </c>
       <c r="L81" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>